--- a/routes/output.xlsx
+++ b/routes/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,16 +433,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>RLOS</v>
+        <v>Quang</v>
       </c>
       <c r="D2" t="str">
-        <v>tuyennv1</v>
+        <v>admin</v>
       </c>
       <c r="F2" t="str">
-        <v>1.1.1.1</v>
+        <v>10.10.6.120</v>
       </c>
       <c r="G2" t="str">
-        <v>test</v>
+        <v>reshub.com</v>
       </c>
     </row>
     <row r="3">
@@ -450,16 +450,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <v>RLOS</v>
+        <v>Quang</v>
       </c>
       <c r="D3" t="str">
-        <v>tuyennv1</v>
+        <v>admin</v>
       </c>
       <c r="F3" t="str">
-        <v>1.1.1.1</v>
+        <v>10.10.6.121</v>
       </c>
       <c r="G3" t="str">
-        <v>test1</v>
+        <v>reshub.com</v>
       </c>
     </row>
     <row r="4">
@@ -467,16 +467,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="str">
-        <v>TF</v>
+        <v>vstar</v>
       </c>
       <c r="D4" t="str">
-        <v>ThomPb</v>
-      </c>
-      <c r="F4" t="str">
-        <v>3.4.3.2</v>
-      </c>
-      <c r="G4" t="str">
-        <v>tf.vn</v>
+        <v>admin</v>
       </c>
     </row>
     <row r="5">
@@ -484,16 +478,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v>TF</v>
+        <v>Reshub</v>
       </c>
       <c r="D5" t="str">
-        <v>ThomPb</v>
+        <v>admin</v>
       </c>
       <c r="F5" t="str">
-        <v>1.1.1.1</v>
+        <v>2.2.2.2</v>
       </c>
       <c r="G5" t="str">
-        <v>test</v>
+        <v>reshub.com</v>
       </c>
     </row>
     <row r="6">
@@ -501,30 +495,39 @@
         <v>5</v>
       </c>
       <c r="C6" t="str">
-        <v>Quang</v>
+        <v>ok</v>
       </c>
       <c r="D6" t="str">
         <v>admin</v>
       </c>
+      <c r="E6" t="str">
+        <v>PPE/UAT</v>
+      </c>
       <c r="F6" t="str">
-        <v>10.10.6.120</v>
+        <v>1.1.1.1</v>
       </c>
       <c r="G6" t="str">
-        <v>reshub.com</v>
+        <v>test</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="str">
+        <v>aaaaa</v>
+      </c>
       <c r="C7" t="str">
-        <v>Quang</v>
+        <v>cccccc</v>
       </c>
       <c r="D7" t="str">
         <v>admin</v>
       </c>
+      <c r="E7" t="str">
+        <v>PROD</v>
+      </c>
       <c r="F7" t="str">
-        <v>10.10.6.121</v>
+        <v>1.1.1.1</v>
       </c>
       <c r="G7" t="str">
         <v>reshub.com</v>
@@ -534,65 +537,92 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="str">
+        <v>aaaaa</v>
+      </c>
       <c r="C8" t="str">
-        <v>vstar</v>
+        <v>cccccc</v>
       </c>
       <c r="D8" t="str">
         <v>admin</v>
+      </c>
+      <c r="E8" t="str">
+        <v>PROD</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1.2.32.2</v>
+      </c>
+      <c r="G8" t="str">
+        <v>test</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="str">
+        <v>aaaaa</v>
+      </c>
       <c r="C9" t="str">
-        <v>Reshub</v>
+        <v>cccccc</v>
       </c>
       <c r="D9" t="str">
         <v>admin</v>
       </c>
+      <c r="E9" t="str">
+        <v>PROD</v>
+      </c>
       <c r="F9" t="str">
-        <v>2.2.2.2</v>
+        <v>1.2.32.3</v>
       </c>
       <c r="G9" t="str">
-        <v>reshub.com</v>
+        <v>test</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="str">
+        <v>aaaaa</v>
+      </c>
       <c r="C10" t="str">
-        <v>ok</v>
+        <v>cccccc</v>
       </c>
       <c r="D10" t="str">
         <v>admin</v>
+      </c>
+      <c r="E10" t="str">
+        <v>PROD</v>
       </c>
       <c r="F10" t="str">
         <v>10.10.6.120</v>
       </c>
       <c r="G10" t="str">
-        <v>reshub.com</v>
+        <v>test</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="str">
+        <v>HT1</v>
+      </c>
       <c r="C11" t="str">
-        <v>ok</v>
+        <v>Hệ thống 1</v>
       </c>
       <c r="D11" t="str">
         <v>admin</v>
       </c>
       <c r="E11" t="str">
-        <v>PPE/UAT</v>
+        <v>PROD</v>
       </c>
       <c r="F11" t="str">
         <v>1.1.1.1</v>
       </c>
       <c r="G11" t="str">
-        <v>test</v>
+        <v>hethong1.com</v>
       </c>
     </row>
     <row r="12">
@@ -600,22 +630,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>aaaaa</v>
+        <v>HT2</v>
       </c>
       <c r="C12" t="str">
-        <v>cccccc</v>
+        <v>Hệ thống 2</v>
       </c>
       <c r="D12" t="str">
         <v>admin</v>
       </c>
       <c r="E12" t="str">
-        <v>PROD</v>
+        <v>PPE/UAT</v>
       </c>
       <c r="F12" t="str">
-        <v>1.1.1.1</v>
+        <v>2.2.2.2</v>
       </c>
       <c r="G12" t="str">
-        <v>reshub.com</v>
+        <v>hethong2.com</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>aaaaa</v>
+        <v>HT2</v>
       </c>
       <c r="C13" t="str">
-        <v>cccccc</v>
+        <v>Hệ thống 2</v>
       </c>
       <c r="D13" t="str">
         <v>admin</v>
@@ -635,10 +665,10 @@
         <v>PROD</v>
       </c>
       <c r="F13" t="str">
-        <v>1.2.32.2</v>
+        <v>3.4.3.2</v>
       </c>
       <c r="G13" t="str">
-        <v>test</v>
+        <v>hethong2.com</v>
       </c>
     </row>
     <row r="14">
@@ -646,136 +676,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>aaaaa</v>
+        <v>HT3</v>
       </c>
       <c r="C14" t="str">
-        <v>cccccc</v>
+        <v>He thong 3</v>
       </c>
       <c r="D14" t="str">
         <v>admin</v>
       </c>
-      <c r="E14" t="str">
-        <v>PROD</v>
-      </c>
-      <c r="F14" t="str">
-        <v>1.2.32.3</v>
-      </c>
-      <c r="G14" t="str">
-        <v>test</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <v>aaaaa</v>
-      </c>
-      <c r="C15" t="str">
-        <v>cccccc</v>
-      </c>
-      <c r="D15" t="str">
-        <v>admin</v>
-      </c>
-      <c r="E15" t="str">
-        <v>PROD</v>
-      </c>
-      <c r="F15" t="str">
-        <v>10.10.6.120</v>
-      </c>
-      <c r="G15" t="str">
-        <v>test</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>HT1</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Hệ thống 1</v>
-      </c>
-      <c r="D16" t="str">
-        <v>admin</v>
-      </c>
-      <c r="E16" t="str">
-        <v>PROD</v>
-      </c>
-      <c r="F16" t="str">
-        <v>1.1.1.1</v>
-      </c>
-      <c r="G16" t="str">
-        <v>hethong1.com</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <v>HT2</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Hệ thống 2</v>
-      </c>
-      <c r="D17" t="str">
-        <v>admin</v>
-      </c>
-      <c r="E17" t="str">
-        <v>PPE/UAT</v>
-      </c>
-      <c r="F17" t="str">
-        <v>2.2.2.2</v>
-      </c>
-      <c r="G17" t="str">
-        <v>hethong2.com</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <v>HT2</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Hệ thống 2</v>
-      </c>
-      <c r="D18" t="str">
-        <v>admin</v>
-      </c>
-      <c r="E18" t="str">
-        <v>PROD</v>
-      </c>
-      <c r="F18" t="str">
-        <v>3.4.3.2</v>
-      </c>
-      <c r="G18" t="str">
-        <v>hethong2.com</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <v>HT3</v>
-      </c>
-      <c r="C19" t="str">
-        <v>He thong 3</v>
-      </c>
-      <c r="D19" t="str">
-        <v>admin</v>
-      </c>
-      <c r="H19" t="str">
+      <c r="H14" t="str">
         <v>test</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
   </ignoredErrors>
 </worksheet>
 </file>